--- a/explaining_difference_fatality_rate/dati_per_la_voce_casitestati.xlsx
+++ b/explaining_difference_fatality_rate/dati_per_la_voce_casitestati.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Desktop\COVID\explaining_difference_fatality_rate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\politicalcovid19\explaining_difference_fatality_rate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584A468C-4D2C-4211-BD15-8268D9872726}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF4EC1A-A933-4CC5-AA76-424FD9B9B129}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{ED032824-2CF7-4375-B2A3-8EAEA6F643C6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="50">
   <si>
     <t>2020-04-19T17:00:00</t>
   </si>
@@ -182,6 +182,9 @@
   <si>
     <t>note_en</t>
   </si>
+  <si>
+    <t>positivity rate</t>
+  </si>
 </sst>
 </file>
 
@@ -208,7 +211,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,6 +227,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF6F8FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -268,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -284,6 +293,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -304,6 +319,1208 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>db_pdcm!$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>positivity rate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B92E9D6B-149D-49B4-B05B-A4EB4C319635}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-9C7F-4372-932A-40CBACBFDA0D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{581DF6D6-2D26-4957-B6EF-3119039718E8}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-9C7F-4372-932A-40CBACBFDA0D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{9E5A0E2D-1374-4D1A-BE08-38ACF0A6D5F4}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-9C7F-4372-932A-40CBACBFDA0D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{48F17777-656C-4145-80F4-E27CCA607E5A}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-9C7F-4372-932A-40CBACBFDA0D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{FA2EF002-6329-4C46-8C89-AF007A668061}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-9C7F-4372-932A-40CBACBFDA0D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{68BCE63B-22D3-4F4B-A060-816D4DC64185}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-9C7F-4372-932A-40CBACBFDA0D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{0213E29D-CA8D-4F72-923D-3FCCC4A1455A}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-9C7F-4372-932A-40CBACBFDA0D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E05836C2-F57C-4099-9695-9F86E841F5C7}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-9C7F-4372-932A-40CBACBFDA0D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B18679E9-E01B-441B-95E2-3B4387A936C0}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-9C7F-4372-932A-40CBACBFDA0D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{6017FEC6-2FAB-4377-9922-813EA195B150}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-9C7F-4372-932A-40CBACBFDA0D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{BCB29A7B-7EA1-4A1E-A2EE-8638D5D8F1FD}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-9C7F-4372-932A-40CBACBFDA0D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{3A1A3FD0-4B7C-4776-A1A1-4494398E7098}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-9C7F-4372-932A-40CBACBFDA0D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{482D78BD-78B5-4C7A-9237-E98EBA0E89D5}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-9C7F-4372-932A-40CBACBFDA0D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{6AEECF5C-EC9D-496D-BCF0-74EF4B6F0E15}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-9C7F-4372-932A-40CBACBFDA0D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1786F5DB-DC7E-4C69-9F90-C79F084DA14D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-9C7F-4372-932A-40CBACBFDA0D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{73685D42-3523-40D1-848A-3BFCA5EF336B}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-9C7F-4372-932A-40CBACBFDA0D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="16"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{DF09EDFC-0C40-43EC-8FC7-3E0ED6434588}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-9C7F-4372-932A-40CBACBFDA0D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="17"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{3780D3AE-238C-455B-B0D2-820AE22B123C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-9C7F-4372-932A-40CBACBFDA0D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="18"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{3A0EA219-7309-47F2-85B4-7CA407D668D2}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000013-9C7F-4372-932A-40CBACBFDA0D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="19"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1E3CE9ED-D527-4BFA-B5B9-C3D6A3CC7B75}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000014-9C7F-4372-932A-40CBACBFDA0D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="20"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{4DA36F15-FC3D-4F89-A069-24CE52F1CF99}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000015-9C7F-4372-932A-40CBACBFDA0D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>db_pdcm!$S$2:$S$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1.1661936857041503E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4944670937682005E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6502087613493272E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2827067010986126E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.5470085470085479E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3874623187449118E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.3052437710671723E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5129839164173929E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.3541562400473181E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.1400137307956357E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.9350853388559594E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.8873201194678251E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2913433162094219E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.5604721816368656E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.0734463276836161E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.9514920288867697E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.7606869429641869E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.1098749063238602E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.392011228726826E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.2480818414322252E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.7905494116282054E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>db_pdcm!$T$2:$T$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.11582121319616885</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9796156086196856E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15865862548876666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5432660743204796E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11268774375570492</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25157876207450436</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.6431177676616742E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.25209173277842806</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.30342599754310934</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.38637189686903245</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.20802685138898808</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.6296497420581047E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.29168488359383538</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.2724552981284352E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.6723163841807907E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.3705253732505405E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.8980755358015496E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.2069522107569032</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.8893502544008426E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.27826086956521739</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.8481286296158335E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>db_pdcm!$D$2:$D$22</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="21"/>
+                  <c:pt idx="0">
+                    <c:v>Abruzzo</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Basilicata</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>P.A. Bolzano</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Calabria</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Campania</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Emilia-Romagna</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Friuli Venezia Giulia</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Lazio</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Liguria</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Lombardia</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Marche</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Molise</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Piemonte</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Puglia</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Sardegna</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Sicilia</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Toscana</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>P.A. Trento</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Umbria</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>Valle d'Aosta</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Veneto</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9C7F-4372-932A-40CBACBFDA0D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="496254728"/>
+        <c:axId val="496252432"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="496254728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="496252432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="496252432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="496254728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -758,6 +1975,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1274,7 +2531,564 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>183776</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>58270</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>8965</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>125505</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{274E7972-DD48-4CD4-97D2-47DD0FB81335}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1612,15 +3426,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2006ED4B-5ACE-41B0-8DFD-C936EE047B6E}">
-  <dimension ref="A1:T22"/>
+  <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="T1" sqref="S1:T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>27</v>
       </c>
@@ -1675,14 +3489,20 @@
       <c r="R1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="U1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>30</v>
       </c>
@@ -1737,10 +3557,18 @@
       <c r="R2" s="3">
         <v>22552</v>
       </c>
-      <c r="S2" s="3"/>
-      <c r="T2" s="1"/>
+      <c r="S2" s="8">
+        <f>O2/R2</f>
+        <v>1.1661936857041503E-2</v>
+      </c>
+      <c r="T2" s="8">
+        <f>P2/R2</f>
+        <v>0.11582121319616885</v>
+      </c>
+      <c r="U2" s="3"/>
+      <c r="V2" s="1"/>
     </row>
-    <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
@@ -1795,10 +3623,18 @@
       <c r="R3" s="2">
         <v>6868</v>
       </c>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
+      <c r="S3" s="8">
+        <f t="shared" ref="S3:S22" si="0">O3/R3</f>
+        <v>3.4944670937682005E-3</v>
+      </c>
+      <c r="T3" s="8">
+        <f t="shared" ref="T3:T22" si="1">P3/R3</f>
+        <v>4.9796156086196856E-2</v>
+      </c>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
     </row>
-    <row r="4" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>30</v>
       </c>
@@ -1853,10 +3689,18 @@
       <c r="R4" s="3">
         <v>15089</v>
       </c>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
+      <c r="S4" s="8">
+        <f t="shared" si="0"/>
+        <v>1.6502087613493272E-2</v>
+      </c>
+      <c r="T4" s="8">
+        <f t="shared" si="1"/>
+        <v>0.15865862548876666</v>
+      </c>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
     </row>
-    <row r="5" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
@@ -1911,10 +3755,18 @@
       <c r="R5" s="2">
         <v>22847</v>
       </c>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
+      <c r="S5" s="8">
+        <f t="shared" si="0"/>
+        <v>3.2827067010986126E-3</v>
+      </c>
+      <c r="T5" s="8">
+        <f t="shared" si="1"/>
+        <v>4.5432660743204796E-2</v>
+      </c>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
     </row>
-    <row r="6" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
@@ -1969,10 +3821,18 @@
       <c r="R6" s="3">
         <v>36153</v>
       </c>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
+      <c r="S6" s="8">
+        <f t="shared" si="0"/>
+        <v>8.5470085470085479E-3</v>
+      </c>
+      <c r="T6" s="8">
+        <f t="shared" si="1"/>
+        <v>0.11268774375570492</v>
+      </c>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
     </row>
-    <row r="7" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
@@ -2027,10 +3887,18 @@
       <c r="R7" s="2">
         <v>90894</v>
       </c>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
+      <c r="S7" s="8">
+        <f t="shared" si="0"/>
+        <v>3.3874623187449118E-2</v>
+      </c>
+      <c r="T7" s="8">
+        <f t="shared" si="1"/>
+        <v>0.25157876207450436</v>
+      </c>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
     </row>
-    <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>30</v>
       </c>
@@ -2085,10 +3953,18 @@
       <c r="R8" s="3">
         <v>28777</v>
       </c>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
+      <c r="S8" s="8">
+        <f t="shared" si="0"/>
+        <v>8.3052437710671723E-3</v>
+      </c>
+      <c r="T8" s="8">
+        <f t="shared" si="1"/>
+        <v>9.6431177676616742E-2</v>
+      </c>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
     </row>
-    <row r="9" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
@@ -2143,10 +4019,18 @@
       <c r="R9" s="2">
         <v>23067</v>
       </c>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
+      <c r="S9" s="8">
+        <f t="shared" si="0"/>
+        <v>1.5129839164173929E-2</v>
+      </c>
+      <c r="T9" s="8">
+        <f t="shared" si="1"/>
+        <v>0.25209173277842806</v>
+      </c>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
     </row>
-    <row r="10" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>30</v>
       </c>
@@ -2201,10 +4085,18 @@
       <c r="R10" s="3">
         <v>21979</v>
       </c>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
+      <c r="S10" s="8">
+        <f t="shared" si="0"/>
+        <v>4.3541562400473181E-2</v>
+      </c>
+      <c r="T10" s="8">
+        <f t="shared" si="1"/>
+        <v>0.30342599754310934</v>
+      </c>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
     </row>
-    <row r="11" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
@@ -2259,14 +4151,22 @@
       <c r="R11" s="2">
         <v>173333</v>
       </c>
-      <c r="S11" s="2" t="s">
+      <c r="S11" s="8">
+        <f t="shared" si="0"/>
+        <v>7.1400137307956357E-2</v>
+      </c>
+      <c r="T11" s="8">
+        <f t="shared" si="1"/>
+        <v>0.38637189686903245</v>
+      </c>
+      <c r="U11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="T11" s="2" t="s">
+      <c r="V11" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>30</v>
       </c>
@@ -2321,10 +4221,18 @@
       <c r="R12" s="3">
         <v>28006</v>
       </c>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
+      <c r="S12" s="8">
+        <f t="shared" si="0"/>
+        <v>2.9350853388559594E-2</v>
+      </c>
+      <c r="T12" s="8">
+        <f t="shared" si="1"/>
+        <v>0.20802685138898808</v>
+      </c>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
     </row>
-    <row r="13" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
@@ -2379,10 +4287,18 @@
       <c r="R13" s="2">
         <v>3683</v>
       </c>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
+      <c r="S13" s="8">
+        <f t="shared" si="0"/>
+        <v>4.8873201194678251E-3</v>
+      </c>
+      <c r="T13" s="8">
+        <f t="shared" si="1"/>
+        <v>7.6296497420581047E-2</v>
+      </c>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
     </row>
-    <row r="14" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>30</v>
       </c>
@@ -2437,10 +4353,18 @@
       <c r="R14" s="3">
         <v>73192</v>
       </c>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
+      <c r="S14" s="8">
+        <f t="shared" si="0"/>
+        <v>3.2913433162094219E-2</v>
+      </c>
+      <c r="T14" s="8">
+        <f t="shared" si="1"/>
+        <v>0.29168488359383538</v>
+      </c>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
     </row>
-    <row r="15" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
@@ -2495,10 +4419,18 @@
       <c r="R15" s="2">
         <v>43119</v>
       </c>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
+      <c r="S15" s="8">
+        <f t="shared" si="0"/>
+        <v>7.5604721816368656E-3</v>
+      </c>
+      <c r="T15" s="8">
+        <f t="shared" si="1"/>
+        <v>8.2724552981284352E-2</v>
+      </c>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
     </row>
-    <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>30</v>
       </c>
@@ -2553,10 +4485,18 @@
       <c r="R16" s="3">
         <v>14160</v>
       </c>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
+      <c r="S16" s="8">
+        <f t="shared" si="0"/>
+        <v>6.0734463276836161E-3</v>
+      </c>
+      <c r="T16" s="8">
+        <f t="shared" si="1"/>
+        <v>8.6723163841807907E-2</v>
+      </c>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
     </row>
-    <row r="17" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
@@ -2611,10 +4551,18 @@
       <c r="R17" s="2">
         <v>51373</v>
       </c>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
+      <c r="S17" s="8">
+        <f t="shared" si="0"/>
+        <v>3.9514920288867697E-3</v>
+      </c>
+      <c r="T17" s="8">
+        <f t="shared" si="1"/>
+        <v>5.3705253732505405E-2</v>
+      </c>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
     </row>
-    <row r="18" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>30</v>
       </c>
@@ -2669,10 +4617,18 @@
       <c r="R18" s="3">
         <v>85946</v>
       </c>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
+      <c r="S18" s="8">
+        <f t="shared" si="0"/>
+        <v>7.7606869429641869E-3</v>
+      </c>
+      <c r="T18" s="8">
+        <f t="shared" si="1"/>
+        <v>9.8980755358015496E-2</v>
+      </c>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
     </row>
-    <row r="19" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
@@ -2727,10 +4683,18 @@
       <c r="R19" s="2">
         <v>17347</v>
       </c>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
+      <c r="S19" s="8">
+        <f t="shared" si="0"/>
+        <v>2.1098749063238602E-2</v>
+      </c>
+      <c r="T19" s="8">
+        <f t="shared" si="1"/>
+        <v>0.2069522107569032</v>
+      </c>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
     </row>
-    <row r="20" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>30</v>
       </c>
@@ -2785,10 +4749,18 @@
       <c r="R20" s="3">
         <v>17099</v>
       </c>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
+      <c r="S20" s="8">
+        <f t="shared" si="0"/>
+        <v>3.392011228726826E-3</v>
+      </c>
+      <c r="T20" s="8">
+        <f t="shared" si="1"/>
+        <v>7.8893502544008426E-2</v>
+      </c>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
     </row>
-    <row r="21" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>30</v>
       </c>
@@ -2843,10 +4815,18 @@
       <c r="R21" s="2">
         <v>3910</v>
       </c>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
+      <c r="S21" s="8">
+        <f t="shared" si="0"/>
+        <v>3.2480818414322252E-2</v>
+      </c>
+      <c r="T21" s="8">
+        <f t="shared" si="1"/>
+        <v>0.27826086956521739</v>
+      </c>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
     </row>
-    <row r="22" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>30</v>
       </c>
@@ -2901,12 +4881,21 @@
       <c r="R22" s="3">
         <v>163757</v>
       </c>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
+      <c r="S22" s="8">
+        <f t="shared" si="0"/>
+        <v>6.7905494116282054E-3</v>
+      </c>
+      <c r="T22" s="8">
+        <f t="shared" si="1"/>
+        <v>9.8481286296158335E-2</v>
+      </c>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
